--- a/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,76</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,95</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,84</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>763,48%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>417,53%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,32%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>2,62; 12,37</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 8,37</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-2,78; 5,68</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-1,23; 7,35</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,97; 1248,39</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,5</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,9</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>164,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>580,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>977,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,9%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,49; 6,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,13; 7,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,18; 7,56</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,59; 2,71</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,21; 456,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>185,52; 2249,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>251,08; 4402,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,99; 145,32</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>125,5%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>470,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>161,25%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>182,22%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,18; 5,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,64; 7,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 3,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,68; 4,16</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,79; 307,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>185,7; 1002,33</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>29,51; 430,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,43; 398,7</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>212,51%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>264,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>153,05%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>72,35%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,59; 5,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,25; 6,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,88; 4,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,1; 3,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>36,38; 609,19</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,09; 810,6</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,64; 402,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,99; 211,69</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>77,79%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>255,42%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>208,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>236,67%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,59; 3,66</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,37; 5,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,64; 4,91</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,36; 6,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,06; 182,36</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>96,8; 531,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,18; 471,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>106,66; 465,22</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,03</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>137,69%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>351,14%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>224,97%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>143,35%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 4,05</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,78; 5,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,09; 3,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,13; 3,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>78,61; 215,67</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>219,64; 572,34</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>129,27; 367,87</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,73; 210,01</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,76</t>
+          <t>4,03</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>4,36</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>3,84</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>763,48%</t>
+          <t>209,95%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>417,53%</t>
+          <t>557,77%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>77,47%</t>
+          <t>587,42%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>143,32%</t>
+          <t>61,79%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,62; 12,37</t>
+          <t>1,96; 6,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 8,37</t>
+          <t>2,69; 6,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 5,68</t>
+          <t>2,69; 6,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 7,35</t>
+          <t>0,12; 3,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,01; 538,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>168,23; 1434,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>170,45; 2185,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-33,97; 1248,39</t>
+          <t>2,17; 165,62</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,5</t>
+          <t>3,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,9</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,96</t>
+          <t>1,91</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>3,27</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>164,25%</t>
+          <t>125,5%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>580,11%</t>
+          <t>470,16%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>977,78%</t>
+          <t>161,25%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,9%</t>
+          <t>245,84%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,49; 6,01</t>
+          <t>1,18; 5,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,13; 7,43</t>
+          <t>3,64; 7,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,18; 7,56</t>
+          <t>0,66; 3,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 2,71</t>
+          <t>2,0; 4,63</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>38,21; 456,09</t>
+          <t>31,79; 307,87</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>185,52; 2249,42</t>
+          <t>185,7; 1002,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>251,08; 4402,67</t>
+          <t>29,51; 430,24</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,99; 145,32</t>
+          <t>102,66; 667,0</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>3,07</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5,4</t>
+          <t>4,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,91</t>
+          <t>2,36</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>125,5%</t>
+          <t>212,51%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>470,16%</t>
+          <t>264,59%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>161,25%</t>
+          <t>153,05%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>182,22%</t>
+          <t>50,86%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,01</t>
+          <t>1,59; 5,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,2</t>
+          <t>2,25; 6,53</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,2</t>
+          <t>0,88; 4,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,68; 4,16</t>
+          <t>-1,02; 2,99</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>31,79; 307,87</t>
+          <t>36,38; 609,19</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>185,7; 1002,33</t>
+          <t>62,09; 810,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,51; 430,24</t>
+          <t>25,64; 402,24</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>71,43; 398,7</t>
+          <t>-28,45; 178,13</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>3,65</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>4,4</t>
+          <t>4,2</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>212,51%</t>
+          <t>77,79%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>264,59%</t>
+          <t>255,42%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>153,05%</t>
+          <t>208,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>72,35%</t>
+          <t>225,91%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,96</t>
+          <t>0,59; 3,66</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,53</t>
+          <t>2,37; 5,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,18</t>
+          <t>1,64; 4,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 3,46</t>
+          <t>2,99; 6,52</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,38; 609,19</t>
+          <t>15,06; 182,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>62,09; 810,6</t>
+          <t>96,8; 531,29</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>25,64; 402,24</t>
+          <t>71,18; 471,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 211,69</t>
+          <t>96,48; 436,18</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,05</t>
+          <t>3,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,2</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,23</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>2,96</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>77,79%</t>
+          <t>137,69%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>255,42%</t>
+          <t>351,14%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>208,59%</t>
+          <t>224,97%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>236,67%</t>
+          <t>148,7%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,66</t>
+          <t>2,09; 4,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,98</t>
+          <t>3,78; 5,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,91</t>
+          <t>2,09; 3,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,36; 6,78</t>
+          <t>1,89; 3,85</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,06; 182,36</t>
+          <t>78,61; 215,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>96,8; 531,29</t>
+          <t>219,64; 572,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>71,18; 471,82</t>
+          <t>129,27; 367,87</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>106,66; 465,22</t>
+          <t>81,73; 236,17</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>3,08</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>2,87</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>3,03</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>137,69%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>351,14%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>224,97%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>143,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 4,05</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>3,78; 5,7</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>2,09; 3,66</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>2,13; 3,82</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>78,61; 215,67</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>219,64; 572,34</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>129,27; 367,87</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>84,73; 210,01</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A03-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,96; 6,16</t>
+          <t>2,15; 6,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,45</t>
+          <t>2,88; 6,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,42</t>
+          <t>2,64; 6,29</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,12; 3,12</t>
+          <t>-0,04; 3,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,01; 538,61</t>
+          <t>67,29; 517,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>168,23; 1434,54</t>
+          <t>186,97; 1626,7</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>170,45; 2185,6</t>
+          <t>171,55; 1874,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,17; 165,62</t>
+          <t>-3,71; 162,58</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,01</t>
+          <t>1,13; 4,94</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 7,2</t>
+          <t>3,71; 7,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,2</t>
+          <t>0,62; 3,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 4,63</t>
+          <t>2,04; 4,67</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,79; 307,87</t>
+          <t>33,22; 301,36</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>185,7; 1002,33</t>
+          <t>188,25; 980,42</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>29,51; 430,24</t>
+          <t>27,68; 446,67</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>102,66; 667,0</t>
+          <t>109,12; 665,32</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,59; 5,96</t>
+          <t>1,61; 5,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 6,53</t>
+          <t>2,24; 6,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,88; 4,18</t>
+          <t>0,56; 3,96</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 2,99</t>
+          <t>-1,12; 2,95</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>36,38; 609,19</t>
+          <t>48,58; 586,03</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>62,09; 810,6</t>
+          <t>65,72; 735,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 402,24</t>
+          <t>21,94; 448,82</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-28,45; 178,13</t>
+          <t>-33,45; 170,68</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 3,66</t>
+          <t>0,4; 3,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,37; 5,98</t>
+          <t>2,65; 6,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,64; 4,91</t>
+          <t>1,72; 4,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,99; 6,52</t>
+          <t>2,88; 6,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,06; 182,36</t>
+          <t>6,16; 185,55</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>96,8; 531,29</t>
+          <t>101,88; 502,31</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>71,18; 471,82</t>
+          <t>70,97; 484,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,48; 436,18</t>
+          <t>93,82; 448,18</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 4,05</t>
+          <t>2,11; 3,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,78; 5,7</t>
+          <t>3,8; 5,62</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 3,66</t>
+          <t>2,09; 3,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,89; 3,85</t>
+          <t>1,88; 3,78</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>78,61; 215,67</t>
+          <t>81,59; 222,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>219,64; 572,34</t>
+          <t>221,47; 535,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>129,27; 367,87</t>
+          <t>130,28; 361,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>81,73; 236,17</t>
+          <t>84,72; 237,71</t>
         </is>
       </c>
     </row>
